--- a/partner_config_Differences.xlsx
+++ b/partner_config_Differences.xlsx
@@ -1717,6 +1717,21 @@
     <t>2024-09-30 15:05:03</t>
   </si>
   <si>
+    <t>PHZdaKpMJnWU1z</t>
+  </si>
+  <si>
+    <t>[PHZdaKpMJnWU1z application PHZdZCX11qaWNT   1  C4uidYkQYsDdgX CKORH39BEuEzIS 0  0 0 commission 0 500 0  1762334850  1730798850 1730798850 ]</t>
+  </si>
+  <si>
+    <t>1730798850</t>
+  </si>
+  <si>
+    <t>2024-11-05 14:57:30</t>
+  </si>
+  <si>
+    <t>ID not found in pc_api.csv</t>
+  </si>
+  <si>
     <t>PHZcVVCkvaBGOn</t>
   </si>
   <si>
@@ -1729,9 +1744,6 @@
     <t>2024-11-05 14:56:29</t>
   </si>
   <si>
-    <t>ID not found in pc_api.csv</t>
-  </si>
-  <si>
     <t>PHZdY1388jxjHa</t>
   </si>
   <si>
@@ -1742,18 +1754,6 @@
   </si>
   <si>
     <t>2024-11-05 14:57:28</t>
-  </si>
-  <si>
-    <t>PHZdaKpMJnWU1z</t>
-  </si>
-  <si>
-    <t>[PHZdaKpMJnWU1z application PHZdZCX11qaWNT   1  C4uidYkQYsDdgX CKORH39BEuEzIS 0  0 0 commission 0 500 0  1762334850  1730798850 1730798850 ]</t>
-  </si>
-  <si>
-    <t>1730798850</t>
-  </si>
-  <si>
-    <t>2024-11-05 14:57:30</t>
   </si>
 </sst>
 </file>

--- a/partner_config_Differences.xlsx
+++ b/partner_config_Differences.xlsx
@@ -1732,6 +1732,18 @@
     <t>ID not found in pc_api.csv</t>
   </si>
   <si>
+    <t>PHZdY1388jxjHa</t>
+  </si>
+  <si>
+    <t>[PHZdY1388jxjHa application PHZdWvbbn433su   1  C4uidYkQYsDdgX CKORH39BEuEzIS 0  0 0 commission 0 500 0  1762334848  1730798848 1730798848 ]</t>
+  </si>
+  <si>
+    <t>1730798848</t>
+  </si>
+  <si>
+    <t>2024-11-05 14:57:28</t>
+  </si>
+  <si>
     <t>PHZcVVCkvaBGOn</t>
   </si>
   <si>
@@ -1742,18 +1754,6 @@
   </si>
   <si>
     <t>2024-11-05 14:56:29</t>
-  </si>
-  <si>
-    <t>PHZdY1388jxjHa</t>
-  </si>
-  <si>
-    <t>[PHZdY1388jxjHa application PHZdWvbbn433su   1  C4uidYkQYsDdgX CKORH39BEuEzIS 0  0 0 commission 0 500 0  1762334848  1730798848 1730798848 ]</t>
-  </si>
-  <si>
-    <t>1730798848</t>
-  </si>
-  <si>
-    <t>2024-11-05 14:57:28</t>
   </si>
 </sst>
 </file>

--- a/partner_config_Differences.xlsx
+++ b/partner_config_Differences.xlsx
@@ -1732,6 +1732,18 @@
     <t>ID not found in pc_api.csv</t>
   </si>
   <si>
+    <t>PHZcVVCkvaBGOn</t>
+  </si>
+  <si>
+    <t>[PHZcVVCkvaBGOn application PHZcUPr1y0mHLe   1  C4uidYkQYsDdgX CKORH39BEuEzIS 0  0 0 commission 0 500 0  1762334789  1730798789 1730798789 ]</t>
+  </si>
+  <si>
+    <t>1730798789</t>
+  </si>
+  <si>
+    <t>2024-11-05 14:56:29</t>
+  </si>
+  <si>
     <t>PHZdY1388jxjHa</t>
   </si>
   <si>
@@ -1742,18 +1754,6 @@
   </si>
   <si>
     <t>2024-11-05 14:57:28</t>
-  </si>
-  <si>
-    <t>PHZcVVCkvaBGOn</t>
-  </si>
-  <si>
-    <t>[PHZcVVCkvaBGOn application PHZcUPr1y0mHLe   1  C4uidYkQYsDdgX CKORH39BEuEzIS 0  0 0 commission 0 500 0  1762334789  1730798789 1730798789 ]</t>
-  </si>
-  <si>
-    <t>1730798789</t>
-  </si>
-  <si>
-    <t>2024-11-05 14:56:29</t>
   </si>
 </sst>
 </file>
